--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1034616.856075814</v>
+        <v>-1008738.650122255</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17488934.14183816</v>
+        <v>16785344.57056395</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9984670.558210554</v>
+        <v>10005076.83845052</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>246.577423520965</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>83.35658396796737</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,13 +826,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>142.0902352657462</v>
+        <v>80.61114148256237</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>325.1742879987712</v>
+        <v>218.0682703408983</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>189.441255472166</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>78.70357377450016</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.8977571405302</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>362.0169156563304</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>137.5563529521251</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>79.49239799915195</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>357.2996451899984</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>133.370999537607</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>24.62703520776651</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>240.2737862279059</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884103</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556924</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016044</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>43.4889870101594</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>224.6185447043785</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>24.62703520776942</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>248.9391871454529</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.97358346682203</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934483</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277815</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
         <v>407.353044956137</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925396</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.5376393943242</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934458</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>1435.509257468724</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>1401.407188692552</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,22 +4328,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4367,13 +4367,13 @@
         <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X2" t="n">
-        <v>988.0621786998757</v>
+        <v>1462.014143573171</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.8164590399332</v>
+        <v>1457.768423913228</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4407,19 +4407,19 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>623.8308893488454</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>623.8308893488454</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1675.765608785789</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>623.8308893488454</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>623.8308893488454</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1055.032768817175</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439876</v>
+        <v>1020.930700041002</v>
       </c>
       <c r="D5" t="n">
-        <v>790.2699749588362</v>
+        <v>989.0613192558508</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>768.7903391135293</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.922909522737</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.922909522737</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.79275496595329</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.37596559309329</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.6306530460112</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>581.590280513954</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>581.590280513954</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>581.590280513954</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>581.590280513954</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1217.367854728483</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1853.145428943013</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2399.644214901607</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2568.798279654664</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2568.798279654664</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2568.798279654664</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2309.575976971681</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2309.575976971681</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1904.720522382715</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1485.578058962025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1077.291935261679</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.5477105843861</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>451.0912494210284</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>356.0009605675816</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.8805458945353</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.4967075106969</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>93.11161777688082</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.37596559309329</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.43963875355089</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.9979637197632</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1037.775537934293</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1056.704010345487</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.704010345487</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.704010345487</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.704010345487</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.704010345487</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.442948977563</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.615727071902</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1651.160289520285</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.981645850887</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.645098850855</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.527580912855</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>960.2048266460486</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.3373908849285</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.8516116641492</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.4401176967148</v>
+        <v>788.1357971925586</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>615.5740856757835</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>449.6960928773062</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>279.9380891280434</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>279.9380891280434</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.9380891280434</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>140.035914818418</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.37596559309329</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>51.37596559309329</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>326.1344201642289</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>744.34430193219</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1203.828169113103</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1646.086972270748</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2065.756221496529</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2413.263115466871</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2568.798279654664</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2547.380458360036</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2388.139089658033</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2142.259643236488</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1863.826642489593</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1576.871134360024</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1304.844729946315</v>
       </c>
       <c r="X7" t="n">
-        <v>940.4401176967148</v>
+        <v>1059.452975279728</v>
       </c>
       <c r="Y7" t="n">
-        <v>940.4401176967148</v>
+        <v>979.9544159115458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165.3096178401823</v>
+        <v>2407.571603271173</v>
       </c>
       <c r="C8" t="n">
-        <v>131.2075490640097</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>99.33816827885826</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>69.6038274775575</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>45.77680192716929</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>45.77680192716929</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>45.77680192716929</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>45.77680192716929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.0314893800872</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1047.519413228807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1047.519413228807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1047.519413228807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1047.519413228807</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1047.519413228807</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1573.187245646813</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2119.686031605408</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2288.840096358465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2205.188222542301</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2205.188222542301</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1945.965919859318</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.348969793145</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1178.493515204178</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>759.3510517834887</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.0649280831421</v>
+        <v>2429.830769715676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>551.9485469184621</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.4920857551044</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.4017969016576</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.2813822286113</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>172.8975438447729</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.51245411095681</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>45.77680192716929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>71.84047508762688</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.3988000538392</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>962.8867239025591</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.355861462918</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.355861462918</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.355861462918</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1025.355861462918</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1591.843785311638</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1591.843785311638</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.016563405978</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.561125854361</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.382482184963</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.045935184931</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1139.92841724693</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.6056629801244</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>799.7382272190044</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.2524479982252</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>984.9327882294251</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C10" t="n">
-        <v>812.3710767126501</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>646.4930839141728</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>476.7350801649101</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>300.0280261266663</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>134.436751152494</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.436751152494</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>45.77680192716929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>45.77680192716929</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>201.7114010558225</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>619.9212828237836</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1079.405150004696</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1521.663953162341</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1941.333202388123</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2288.840096358465</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2288.840096358465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2288.840096358465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2288.840096358465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2288.840096358465</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2208.54474484417</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>1921.5892367146</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1649.562832300892</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>1404.171077634304</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1176.751406948412</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1737.284924195704</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1299.142451379128</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>863.232666553572</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4579217118671</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>68.54918919671717</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>68.54918919671717</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671717</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>68.13239982385717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>902.4826917820352</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.621139602267</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1745.621139602267</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N11" t="n">
-        <v>1745.621139602267</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O11" t="n">
-        <v>2588.7595874225</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P11" t="n">
-        <v>2860.121205234263</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.619991192858</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192858</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3406.619991192858</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3186.552764065897</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2927.330461382914</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2564.71351131674</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2564.71351131674</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2145.571047896051</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1737.284924195704</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431478</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>418.7543979505271</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.6262372414691</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C13" t="n">
-        <v>605.064525724694</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>580.1887325855359</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>410.4307288362733</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7236747980295</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13239982385717</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385717</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>154.712084988547</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596827</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862324</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2525.550641024653</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2279.671194603109</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2001.238193856214</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1714.282685726644</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1442.256281312935</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1196.864526646348</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.4448559604562</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,49 +5279,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2837.977298779172</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707805</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354704</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066059</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.808861774567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5522,16 +5522,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4634.82430489918</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4634.82430489918</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5543,19 +5543,19 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5592,25 +5592,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903957</v>
+        <v>1181.319000882658</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736207</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751434</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258806</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0912842876368</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5674,7 +5674,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5701,22 +5701,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
         <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795275</v>
+        <v>1408.73867156855</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109383</v>
+        <v>1181.319000882658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>838.7339540459398</v>
+        <v>811.7546776883946</v>
       </c>
       <c r="C22" t="n">
-        <v>666.1722425291648</v>
+        <v>639.1929661716196</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>639.1929661716196</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>469.4349624223568</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>292.727908384113</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>127.1366334099407</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>127.1366334099407</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5920,40 +5920,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U22" t="n">
-        <v>2062.345910660684</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V22" t="n">
-        <v>1775.390402531115</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>1503.363998117406</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X22" t="n">
-        <v>1257.972243450819</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1030.552572764927</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5990,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6172,7 +6172,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798643</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6643,7 +6643,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>755.2952747835858</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>540.31673232073</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1615.376698573589</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2772.42453378414</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3898.155517220587</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2835.290740278743</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>97.60290339162182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>422.1612283578341</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1102.894748428211</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1102.894748428211</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1102.894748428211</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1102.894748428211</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1102.894748428211</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1102.894748428211</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1643.633687060287</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1061.826912397566</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>905.6649082936675</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>756.1866229080663</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>602.8283265716797</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>442.5209799463121</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>293.3294123850159</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2465.473625281948</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1932.884531231237</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6938,25 +6938,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="K35" t="n">
-        <v>153.4018419862328</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L35" t="n">
-        <v>1228.461808239092</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M35" t="n">
-        <v>1228.461808239092</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.192791675539</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245845</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079241</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790892</v>
@@ -6971,7 +6971,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
         <v>3629.919912574026</v>
@@ -7011,31 +7011,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L36" t="n">
-        <v>1402.731750613591</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.731750613591</v>
+        <v>1296.291537768318</v>
       </c>
       <c r="N36" t="n">
-        <v>1402.731750613591</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="O36" t="n">
-        <v>1402.731750613591</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P36" t="n">
-        <v>1402.731750613591</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R36" t="n">
         <v>1760.806465154627</v>
@@ -7072,13 +7072,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716792</v>
       </c>
       <c r="F37" t="n">
         <v>442.5209799463116</v>
@@ -7087,7 +7087,7 @@
         <v>293.3294123850154</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581785</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7157,67 +7157,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>1296.291537768318</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="O39" t="n">
-        <v>1461.99031162079</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P39" t="n">
-        <v>1461.99031162079</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R39" t="n">
         <v>1760.806465154627</v>
@@ -7318,13 +7318,13 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581786</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7366,10 +7366,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7400,40 +7400,40 @@
         <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.346856428596</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428596</v>
+        <v>3132.707945323302</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998903</v>
+        <v>4112.887611893609</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832299</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
@@ -7451,10 +7451,10 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1296.291537768318</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758679</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428596</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>4144.204463667712</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387606</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>553.418507166381</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7816,19 +7816,19 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8055,10 +8055,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>95.91881562418462</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>642.1995699136661</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>642.199569913666</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>642.199569913666</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>19.11966910221668</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>157.1062264523166</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>572.2100240896161</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>530.977608503036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>572.2100240896161</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>63.10013894985786</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>572.2100240896161</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>157.5096960895487</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>851.6549977982145</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>274.1026442543066</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,10 +9179,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>312.1854988755003</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9240,10 +9240,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,13 +9416,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1157.048678990028</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,22 +9948,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10124,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,13 +10361,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,22 +10422,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949895894</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>56.39912960647972</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>594.524649754585</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10659,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>243.3352893400966</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,19 +10829,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>594.524649754585</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,19 +11066,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>773.1793655528118</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,22 +11133,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>741.5461819426064</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>460.4563671621851</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>184.9732634563349</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>254.6490442527866</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>66.28911010488588</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>-5.053378189940796e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.52943299419019</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.146865729423393</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>18.31929241554315</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>63.14631452530199</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>26.70948359397283</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.9268490649752</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854417.54240498</v>
+        <v>667614.668700714</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>854417.54240498</v>
+        <v>867825.6200485519</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>863519.0148313252</v>
+        <v>869383.3448741809</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662952.4600510799</v>
+        <v>884091.0548877227</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>884091.0548877226</v>
+        <v>884091.0548877225</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>884091.0548877226</v>
+        <v>884091.0548877227</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>884091.0548877225</v>
+        <v>884091.0548877227</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895483.8094300744</v>
+        <v>884091.0548877226</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120633.1469753419</v>
+        <v>93072.06724848303</v>
       </c>
       <c r="C2" t="n">
         <v>120633.1469753419</v>
@@ -26320,10 +26320,10 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>88891.68615960774</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="F2" t="n">
-        <v>118542.9564309042</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="G2" t="n">
         <v>118542.9564309043</v>
@@ -26341,16 +26341,16 @@
         <v>118542.9564309043</v>
       </c>
       <c r="L2" t="n">
-        <v>120633.1469753418</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="M2" t="n">
         <v>120633.1469753418</v>
       </c>
       <c r="N2" t="n">
-        <v>120633.1469753419</v>
+        <v>120633.1469753418</v>
       </c>
       <c r="O2" t="n">
-        <v>120633.1469753419</v>
+        <v>120633.1469753418</v>
       </c>
       <c r="P2" t="n">
         <v>120633.1469753418</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70398.3018449347</v>
       </c>
       <c r="D3" t="n">
-        <v>45946.57756148747</v>
+        <v>7863.796226316505</v>
       </c>
       <c r="E3" t="n">
-        <v>83436.12135996591</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936863</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>56081.4426513062</v>
       </c>
       <c r="L3" t="n">
-        <v>35573.76604029885</v>
+        <v>6407.159806569459</v>
       </c>
       <c r="M3" t="n">
-        <v>69638.8052280775</v>
+        <v>150566.2690088499</v>
       </c>
       <c r="N3" t="n">
-        <v>104487.2066667923</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>136045.6089520856</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>169499.1528003615</v>
       </c>
       <c r="D4" t="n">
-        <v>181210.500884299</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>61069.00861898706</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="G4" t="n">
         <v>81439.57146904284</v>
       </c>
-      <c r="G4" t="n">
-        <v>81439.57146904289</v>
-      </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,7 +26445,7 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>94325.77438500363</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>94325.77438500366</v>
@@ -26454,10 +26454,10 @@
         <v>94325.77438500365</v>
       </c>
       <c r="O4" t="n">
+        <v>94325.77438500366</v>
+      </c>
+      <c r="P4" t="n">
         <v>94325.77438500368</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94325.77438500369</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72673.3338507509</v>
       </c>
       <c r="D5" t="n">
-        <v>68417.96946464866</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613144</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286943.9146634571</v>
+        <v>-244895.8647197222</v>
       </c>
       <c r="C6" t="n">
-        <v>-144752.6140037472</v>
+        <v>-191937.6415207052</v>
       </c>
       <c r="D6" t="n">
-        <v>-174941.9009350931</v>
+        <v>-126706.2620722907</v>
       </c>
       <c r="E6" t="n">
-        <v>-107394.0676854767</v>
+        <v>-222993.1872043635</v>
       </c>
       <c r="F6" t="n">
-        <v>-162848.4227376175</v>
+        <v>-40638.07798331373</v>
       </c>
       <c r="G6" t="n">
-        <v>-40614.85364393111</v>
+        <v>-40638.07798331373</v>
       </c>
       <c r="H6" t="n">
-        <v>-40614.8536439311</v>
+        <v>-40638.0779833137</v>
       </c>
       <c r="I6" t="n">
-        <v>-40614.85364393106</v>
+        <v>-40638.07798331373</v>
       </c>
       <c r="J6" t="n">
-        <v>-151629.3189889212</v>
+        <v>-151652.5433283039</v>
       </c>
       <c r="K6" t="n">
-        <v>-40614.85364393108</v>
+        <v>-96719.52063461993</v>
       </c>
       <c r="L6" t="n">
-        <v>-84782.00817605044</v>
+        <v>-47045.23778988318</v>
       </c>
       <c r="M6" t="n">
-        <v>-118847.047363829</v>
+        <v>-199774.5111446014</v>
       </c>
       <c r="N6" t="n">
-        <v>-153695.4488025438</v>
+        <v>-49208.24213575156</v>
       </c>
       <c r="O6" t="n">
-        <v>-49208.24213575151</v>
+        <v>-49208.24213575157</v>
       </c>
       <c r="P6" t="n">
-        <v>-49208.24213575164</v>
+        <v>-49208.24213575159</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>642.1995699136661</v>
       </c>
       <c r="D4" t="n">
-        <v>572.2100240896161</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982146</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>217.9037123935618</v>
       </c>
       <c r="D4" t="n">
-        <v>147.9141665695118</v>
+        <v>25.31563669419086</v>
       </c>
       <c r="E4" t="n">
-        <v>279.4449737085984</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865307</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>217.9037123935618</v>
       </c>
       <c r="L4" t="n">
-        <v>89.23745913248979</v>
+        <v>25.31563669419086</v>
       </c>
       <c r="M4" t="n">
-        <v>279.4449737085982</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>426.605505586531</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>217.9037123935618</v>
       </c>
       <c r="L4" t="n">
-        <v>147.9141665695118</v>
+        <v>25.31563669419086</v>
       </c>
       <c r="M4" t="n">
-        <v>279.4449737085984</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865307</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>174.7879531405012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>331.594454818515</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>100.8476018541754</v>
+        <v>162.3266956373593</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>104.2627093945165</v>
+        <v>211.3687270523895</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.49658164775562</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>146.4419002045327</v>
       </c>
     </row>
     <row r="8">
@@ -27850,76 +27850,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.1388176395285</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>71.74413243208051</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>82.81535507800136</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>33.27974144948217</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.1562727402738</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.893547039200481e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34775,10 +34775,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>95.91881562418462</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>642.1995699136661</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>642.199569913666</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>642.199569913666</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>19.11966910221668</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>157.1062264523166</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>572.2100240896161</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>530.977608503036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>572.2100240896161</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>63.10013894985786</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>572.2100240896161</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>157.5096960895487</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>851.6549977982145</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>274.1026442543066</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35577,10 +35577,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,25 +35647,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,10 +35899,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>312.1854988755003</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956037</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1157.048678990028</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36844,7 +36844,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37078,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949895894</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>56.39912960647972</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>594.524649754585</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889937</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>243.3352893400966</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,19 +37549,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>594.524649754585</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033059</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,19 +37786,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>773.1793655528118</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778284</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,13 +37944,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,10 +38032,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>741.5461819426064</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>460.4563671621851</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38184,10 +38184,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
